--- a/document/database/用户管理模块数据字典.xlsx
+++ b/document/database/用户管理模块数据字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>groupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户所在国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +187,6 @@
   </si>
   <si>
     <t>varchar2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户_标签表:weixin_user_tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,6 +520,18 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户_标签表:weixin_user_tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,9 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -637,6 +638,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -933,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -948,18 +952,18 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
@@ -983,7 +987,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -1012,7 +1016,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1038,8 +1042,8 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
+      <c r="C7" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1054,8 +1058,8 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
+      <c r="C8" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -1070,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1084,13 +1088,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1098,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1112,7 +1116,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1120,21 +1124,21 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1150,7 +1154,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1160,13 +1164,11 @@
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1174,18 +1176,18 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
+      <c r="A17" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
@@ -1196,31 +1198,31 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
@@ -1244,7 +1246,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -1260,7 +1262,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>11</v>
@@ -1271,15 +1273,15 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>8</v>
@@ -1287,12 +1289,12 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>11</v>
@@ -1303,15 +1305,15 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>8</v>
@@ -1319,15 +1321,15 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>8</v>
@@ -1335,15 +1337,15 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>8</v>
@@ -1351,15 +1353,15 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>8</v>
@@ -1367,15 +1369,15 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>8</v>
@@ -1383,15 +1385,15 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>8</v>
@@ -1399,7 +1401,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1414,18 +1416,18 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="A36" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
@@ -1449,7 +1451,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
@@ -1492,12 +1494,12 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>11</v>
@@ -1508,15 +1510,15 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>8</v>
@@ -1524,15 +1526,15 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>8</v>
@@ -1540,15 +1542,15 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>8</v>
@@ -1556,15 +1558,15 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>8</v>
@@ -1572,15 +1574,15 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>8</v>
@@ -1588,15 +1590,15 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>8</v>
@@ -1604,7 +1606,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1617,7 +1619,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1626,28 +1628,28 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15" t="s">
+      <c r="C53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1669,7 +1671,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>11</v>
@@ -1680,15 +1682,15 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>8</v>
@@ -1696,15 +1698,15 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>8</v>
@@ -1712,15 +1714,15 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>8</v>
@@ -1728,15 +1730,15 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>8</v>
@@ -1744,15 +1746,15 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>8</v>
@@ -1760,15 +1762,15 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>8</v>
@@ -1776,7 +1778,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/document/database/用户管理模块数据字典.xlsx
+++ b/document/database/用户管理模块数据字典.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frog\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="78">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,12 +535,33 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>用户信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:weixin_user</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,9 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -637,17 +660,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -689,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,9 +755,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,6 +807,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -930,14 +1000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="25.375" customWidth="1"/>
@@ -946,22 +1016,22 @@
     <col min="6" max="9" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -981,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -997,7 +1067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1065,7 +1135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +1163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1137,7 +1207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1169,7 +1239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1183,7 +1253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1199,30 +1269,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="20" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1258,7 +1328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -1274,7 +1344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -1290,7 +1360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -1306,7 +1376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
@@ -1322,7 +1392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
@@ -1338,7 +1408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>51</v>
       </c>
@@ -1354,7 +1424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -1370,7 +1440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>53</v>
       </c>
@@ -1386,7 +1456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>54</v>
       </c>
@@ -1402,32 +1472,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
@@ -1463,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>12</v>
       </c>
@@ -1479,7 +1549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -1511,7 +1581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>49</v>
       </c>
@@ -1527,7 +1597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
@@ -1543,7 +1613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
@@ -1559,7 +1629,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
@@ -1575,7 +1645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>53</v>
       </c>
@@ -1591,7 +1661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
@@ -1607,7 +1677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
@@ -1615,7 +1685,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>74</v>
       </c>
@@ -1625,33 +1695,33 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="13" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15" t="s">
+      <c r="C53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>47</v>
       </c>
@@ -1683,7 +1753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>49</v>
       </c>
@@ -1699,7 +1769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>50</v>
       </c>
@@ -1715,7 +1785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>51</v>
       </c>
@@ -1731,7 +1801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +1817,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>53</v>
       </c>
@@ -1763,7 +1833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>54</v>
       </c>
@@ -1793,25 +1863,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="10" width="74.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A52:G52"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/database/用户管理模块数据字典.xlsx
+++ b/document/database/用户管理模块数据字典.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frog\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="79">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,12 +551,16 @@
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>varbinary(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,7 +680,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -723,7 +722,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,27 +754,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,24 +788,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1000,14 +963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="25.375" customWidth="1"/>
@@ -1016,12 +979,12 @@
     <col min="6" max="9" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
         <v>68</v>
       </c>
@@ -1031,7 +994,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1067,7 +1030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1101,7 +1064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1117,7 +1080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1135,7 +1098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1163,7 +1126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1177,7 +1140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1193,7 +1156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1239,7 +1202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1253,7 +1216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1269,7 +1232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1277,12 +1240,12 @@
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="17" t="s">
         <v>69</v>
       </c>
@@ -1292,7 +1255,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
         <v>40</v>
       </c>
@@ -1328,7 +1291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -1344,7 +1307,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -1360,7 +1323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -1376,7 +1339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
@@ -1392,7 +1355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
@@ -1408,7 +1371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>51</v>
       </c>
@@ -1424,7 +1387,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -1440,7 +1403,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>53</v>
       </c>
@@ -1456,7 +1419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>54</v>
       </c>
@@ -1472,22 +1435,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="17" t="s">
         <v>72</v>
       </c>
@@ -1497,7 +1460,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
@@ -1533,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="6" t="s">
         <v>12</v>
       </c>
@@ -1549,7 +1512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
@@ -1565,7 +1528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -1581,7 +1544,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
         <v>49</v>
       </c>
@@ -1597,7 +1560,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
@@ -1613,7 +1576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
@@ -1629,7 +1592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
@@ -1645,7 +1608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="9" t="s">
         <v>53</v>
       </c>
@@ -1661,7 +1624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
@@ -1677,7 +1640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
@@ -1685,7 +1648,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>74</v>
       </c>
@@ -1695,7 +1658,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="17" t="s">
         <v>66</v>
       </c>
@@ -1705,7 +1668,7 @@
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="12" t="s">
         <v>40</v>
       </c>
@@ -1721,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="6" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="9" t="s">
         <v>47</v>
       </c>
@@ -1753,7 +1716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
         <v>49</v>
       </c>
@@ -1769,7 +1732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="9" t="s">
         <v>50</v>
       </c>
@@ -1785,7 +1748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="9" t="s">
         <v>51</v>
       </c>
@@ -1801,7 +1764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="9" t="s">
         <v>52</v>
       </c>
@@ -1817,7 +1780,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="9" t="s">
         <v>53</v>
       </c>
@@ -1833,7 +1796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="9" t="s">
         <v>54</v>
       </c>
@@ -1863,14 +1826,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
@@ -1879,13 +1842,13 @@
     <col min="7" max="10" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
         <v>66</v>
       </c>
@@ -1896,7 +1859,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1934,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1953,7 +1916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1970,13 +1933,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
+      <c r="C7" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
@@ -1987,7 +1950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2006,7 +1969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2021,7 +1984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -2036,7 +1999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2051,7 +2014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2083,7 +2046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2100,7 +2063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -2117,7 +2080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2132,7 +2095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2149,7 +2112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2158,13 +2121,13 @@
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
         <v>69</v>
       </c>
@@ -2175,7 +2138,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>40</v>
       </c>
@@ -2213,7 +2176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -2247,7 +2210,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
@@ -2264,7 +2227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
@@ -2281,7 +2244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
@@ -2298,7 +2261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
         <v>51</v>
       </c>
@@ -2315,7 +2278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -2332,7 +2295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
         <v>53</v>
       </c>
@@ -2349,7 +2312,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="9" t="s">
         <v>54</v>
       </c>
@@ -2366,25 +2329,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="17" t="s">
         <v>72</v>
       </c>
@@ -2395,7 +2358,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
@@ -2433,7 +2396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="6" t="s">
         <v>12</v>
       </c>
@@ -2450,7 +2413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
@@ -2467,7 +2430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -2484,7 +2447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="9" t="s">
         <v>49</v>
       </c>
@@ -2501,7 +2464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
@@ -2518,7 +2481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
@@ -2535,7 +2498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
@@ -2552,7 +2515,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="9" t="s">
         <v>53</v>
       </c>
@@ -2569,7 +2532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
@@ -2586,7 +2549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2595,187 +2558,11 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A52:G52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2784,12 +2571,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
